--- a/data/income_statement/2digits/total/21_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/21_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11484814.66324</v>
@@ -959,34 +865,39 @@
         <v>13114960.04567</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>13632020.839</v>
+        <v>13661482.87736</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>13145318.26153</v>
+        <v>13162260.41109</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>14843331.26515</v>
+        <v>14868740.36342</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>18483512.62716</v>
+        <v>18571754.25753</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>20714623.41159</v>
+        <v>20897550.89636</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>24692301.76334</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>30861621.36535</v>
+        <v>30866046.38911</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>41294957.12714001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>41297307.67645001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>51551814.049</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>10717027.70959</v>
@@ -998,34 +909,39 @@
         <v>12064840.17903</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>12472483.95162</v>
+        <v>12496375.18185</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11859888.66069</v>
+        <v>11876627.2811</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>13384846.60015</v>
+        <v>13409741.68102</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>16628988.29689</v>
+        <v>16701490.37056</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>18698470.68055</v>
+        <v>18880541.11627999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>22011212.33032</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>26966452.89471</v>
+        <v>26969249.89951</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>36342010.85472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>36343283.92755999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>44642986.489</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>651146.84165</v>
@@ -1034,76 +950,86 @@
         <v>716849.3789</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>927879.0564400001</v>
+        <v>927879.05644</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1048635.01621</v>
+        <v>1054154.91854</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1185584.63529</v>
+        <v>1185706.03503</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1322896.83686</v>
+        <v>1323410.85426</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1618904.18355</v>
+        <v>1621077.9663</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1841336.30211</v>
+        <v>1842050.97827</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2405820.75828</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3615446.7703</v>
+        <v>3617072.56914</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4568321.71351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4569005.110940001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6442651.296</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>116640.112</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>93796.96485999999</v>
+        <v>93796.96485999998</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>122240.8102</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>110901.87117</v>
+        <v>110952.77697</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>99844.96555000001</v>
+        <v>99927.09496</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>135587.82814</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>235620.14672</v>
+        <v>249185.92067</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>174816.42893</v>
+        <v>174958.80181</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>275268.67474</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>279721.70034</v>
+        <v>279723.92046</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>384624.55891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>385018.63795</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>466176.264</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2830193.84393</v>
@@ -1112,37 +1038,42 @@
         <v>3000637.34609</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3663968.25956</v>
+        <v>3663968.259560001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3624917.30882</v>
+        <v>3626101.57921</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3441344.34807</v>
+        <v>3442558.10926</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3778848.47399</v>
+        <v>3782437.06764</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4606034.962820001</v>
+        <v>4616086.023390001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4810390.911619999</v>
+        <v>4907792.37082</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>5664322.199519999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6847996.284970001</v>
+        <v>6847996.28497</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>8967882.94633</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>10828362.707</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>77916.47001</v>
@@ -1154,19 +1085,19 @@
         <v>117988.84002</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>113740.00234</v>
+        <v>114837.79672</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>89708.6774</v>
+        <v>90443.64701</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>97857.30841</v>
+        <v>97892.98065</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>76439.57081</v>
+        <v>77539.50697999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>112547.42545</v>
+        <v>113394.7144</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>157350.87366</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>172126.69471</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>340456.498</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2728718.07137</v>
@@ -1193,34 +1129,39 @@
         <v>3524805.60986</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3454481.81185</v>
+        <v>3454498.52034</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>3301451.04568</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3623837.51137</v>
+        <v>3627390.43278</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4492405.09354</v>
+        <v>4492446.211979999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4640299.20321</v>
+        <v>4736853.37346</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>5430275.26725</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6598526.76636</v>
+        <v>6598526.766360001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8667883.939139999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8667883.939140001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10258660.482</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>23559.30255</v>
@@ -1232,16 +1173,16 @@
         <v>21173.80968</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>56695.49462999999</v>
+        <v>56765.26215</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>50184.62499</v>
+        <v>50663.41656999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>57153.65420999999</v>
+        <v>57153.65421</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>37190.29847</v>
+        <v>46100.30443</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>57544.28296</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>127872.31248</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>229245.727</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>8654620.81931</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>9321430.570429998</v>
+        <v>9321430.570429999</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>9450991.786110001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>10007103.53018</v>
+        <v>10035381.29815</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9703973.913460001</v>
+        <v>9719702.301829999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11064482.79116</v>
+        <v>11086303.29578</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>13877477.66434</v>
+        <v>13955668.23414</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15904232.49997</v>
+        <v>15989758.52554</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>19027979.56382</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>24013625.08038</v>
+        <v>24018050.10414</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>32327074.18081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>32329424.73012</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>40723451.342</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4928722.585740001</v>
+        <v>4928722.58574</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>5377113.1527</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5879751.253849999</v>
+        <v>5879751.25385</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6189621.64238</v>
+        <v>6206956.6697</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5916675.63575</v>
+        <v>5924439.55034</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6776651.53791</v>
+        <v>6787398.83633</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8438185.67766</v>
+        <v>8474256.229759999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9517754.71398</v>
+        <v>9566859.343939999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>11205124.94455</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>14362996.7225</v>
+        <v>14367013.29344</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>18475610.55195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18476785.87577</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>23795100.924</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3274368.9331</v>
@@ -1349,34 +1305,39 @@
         <v>4066733.07603</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4341653.53581</v>
+        <v>4356315.39355</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4367392.23224</v>
+        <v>4373691.99727</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5124415.93026</v>
+        <v>5135163.228680001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6362557.33947</v>
+        <v>6388359.27258</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7102904.06644</v>
+        <v>7137961.436379999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>8155040.368100001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>11345920.05478</v>
+        <v>11348562.83958</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14419086.47861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14419388.54893</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>18576992.566</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1393139.3112</v>
@@ -1388,34 +1349,39 @@
         <v>1530435.01728</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1548638.73364</v>
+        <v>1549942.05696</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1164688.24065</v>
+        <v>1166152.39021</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>1224535.93253</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1570944.89209</v>
+        <v>1580266.66072</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1946086.43142</v>
+        <v>1960132.69497</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2526544.14043</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2240463.9868</v>
+        <v>2241831.57081</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2904658.15024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2905422.29514</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3837752.123</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>200219.40766</v>
@@ -1427,7 +1393,7 @@
         <v>245770.05706</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>272998.60591</v>
+        <v>274368.45217</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>321322.68335</v>
@@ -1439,22 +1405,27 @@
         <v>319767.25118</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>326053.44564</v>
+        <v>326054.44211</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>311035.95802</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>495793.41317</v>
+        <v>495799.6153</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>774658.3849300001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>774767.4935300001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>867932.2709999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>60994.93377999999</v>
@@ -1475,7 +1446,7 @@
         <v>116901.76888</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>184916.19492</v>
+        <v>185863.04528</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>142710.77048</v>
@@ -1484,16 +1455,21 @@
         <v>212504.478</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>280819.2677500001</v>
+        <v>280819.26775</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>377207.53817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>377207.5381700001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>512423.964</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3725898.23357</v>
@@ -1505,37 +1481,42 @@
         <v>3571240.53226</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3817481.8878</v>
+        <v>3828424.62845</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3787298.27771</v>
+        <v>3795262.75149</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4287831.25325</v>
+        <v>4298904.459450001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5439291.986679999</v>
+        <v>5481412.004379999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6386477.78599</v>
+        <v>6422899.181600001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>7822854.619270001</v>
+        <v>7822854.61927</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>9650628.357880002</v>
+        <v>9651036.810699999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>13851463.62886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13852638.85435</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>16928350.418</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2960296.90282</v>
+        <v>2960296.902819999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>3145338.19006</v>
@@ -1544,40 +1525,45 @@
         <v>3297031.87249</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3367640.99696</v>
+        <v>3376144.61135</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3352591.22939</v>
+        <v>3362023.80927</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3535357.15932</v>
+        <v>3544411.35886</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3919209.09686</v>
+        <v>3954322.10148</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4210372.06828</v>
+        <v>4230350.14154</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4981082.8701</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5854094.102510001</v>
+        <v>5855085.670750001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7093870.56561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7095404.983910001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7825610.286</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>85524.31718000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>94037.44840000001</v>
+        <v>94037.44839999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>107244.70676</v>
@@ -1589,13 +1575,13 @@
         <v>107532.01123</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>103686.43196</v>
+        <v>103939.03545</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>135648.89859</v>
+        <v>138847.11282</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>158154.43741</v>
+        <v>160578.73731</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>196450.58772</v>
@@ -1604,91 +1590,106 @@
         <v>220374.37684</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>263760.67042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>263783.20345</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>243826.547</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2321558.619039999</v>
+        <v>2321558.61904</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2420057.714060001</v>
+        <v>2420057.71406</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>2511272.21974</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2520833.97775</v>
+        <v>2525067.098420001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2450653.83822</v>
+        <v>2456417.37995</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2605453.40904</v>
+        <v>2611493.58883</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2780561.58141</v>
+        <v>2810310.67748</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2964057.37396</v>
+        <v>2977237.79693</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3550041.06486</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4150528.3995</v>
+        <v>4150556.16887</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5017750.944399999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5017854.240060001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5053015.593</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>553213.9666</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>631243.0275999999</v>
+        <v>631243.0276</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>678514.94599</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>746112.84129</v>
+        <v>750383.33501</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>794405.3799399999</v>
+        <v>798074.4180900001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>826217.3183200001</v>
+        <v>828978.7345799999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1002998.61686</v>
+        <v>1005164.31118</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1088160.25691</v>
+        <v>1092533.6073</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1234591.21752</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1483191.32617</v>
+        <v>1484155.12504</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1812358.95079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1813767.5404</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2528768.146</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>765601.33075</v>
@@ -1700,73 +1701,83 @@
         <v>274208.65977</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>449840.89084</v>
+        <v>452280.0171</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>434707.04832</v>
+        <v>433238.94222</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>752474.0939300001</v>
+        <v>754493.10059</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1520082.88982</v>
+        <v>1527089.9029</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2176105.71771</v>
+        <v>2192549.04006</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2841771.74917</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3796534.25537</v>
+        <v>3795951.13995</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6757593.06325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6757233.87044</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9102740.131999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>403546.461</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>402657.4472500001</v>
+        <v>402657.44725</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>470315.03072</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>616436.18216</v>
+        <v>618201.26591</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>450953.1611799999</v>
+        <v>453596.29542</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>641649.2291</v>
+        <v>645035.65356</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>857765.9283799999</v>
+        <v>880300.7890200001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>962899.9334999999</v>
+        <v>964696.71856</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1161737.90621</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2405057.61817</v>
+        <v>2406409.85169</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1822684.59077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1827822.50847</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3048280.619</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>684.312</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>36696.4686</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>30275.505</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>15.36161</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>43661.08309</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>29475.661</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>44364.46523</v>
+        <v>44364.46522999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>44459.78093</v>
+        <v>44459.78093000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>36629.34039</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>53063.32177999999</v>
+        <v>53376.12884999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>50997.48828</v>
+        <v>51146.91308</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>90878.74003</v>
+        <v>90992.36914</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>123039.44039</v>
+        <v>123079.13559</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>185718.4613</v>
+        <v>185760.24309</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>246840.74886</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>361653.35096</v>
+        <v>362834.25426</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>404424.2110099999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>406654.23519</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>261133.467</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>10209.51527</v>
@@ -1907,7 +1933,7 @@
         <v>3606.16438</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3360.95479</v>
+        <v>3364.86588</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>6237.523560000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>2179.96925</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>4151.219</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>18875.77291</v>
@@ -1934,10 +1965,10 @@
         <v>46491.70949</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>41937.48596</v>
+        <v>42284.46967</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>48265.99537</v>
+        <v>48601.70408</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>33124.12786</v>
@@ -1949,19 +1980,24 @@
         <v>30351.95908</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>60196.47587</v>
+        <v>60196.47586999999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>39768.38604</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>76154.60055999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>76184.91954999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>67459.602</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>11780.84768</v>
@@ -1973,7 +2009,7 @@
         <v>2116.01646</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>94461.16765</v>
+        <v>94461.16764999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>11758.03768</v>
@@ -1985,7 +2021,7 @@
         <v>15147.60911</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6387.79155</v>
+        <v>6387.791550000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>14352.68504</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>7100.937840000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>139464.705</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>205645.98735</v>
@@ -2012,34 +2053,39 @@
         <v>217090.16684</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>224676.62247</v>
+        <v>224879.04919</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>222001.2898</v>
+        <v>222695.919</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>307748.27479</v>
+        <v>308083.08113</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>412551.28272</v>
+        <v>435036.91854</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>418031.52412</v>
+        <v>418855.9264</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>525809.94152</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1671400.57319</v>
+        <v>1671626.74124</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>843670.72366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>846514.4397099999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2064269.959</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>14892.27312</v>
@@ -2051,13 +2097,13 @@
         <v>10757.80135</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>9027.299630000001</v>
+        <v>9693.521419999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>8866.94909</v>
+        <v>10189.47749</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>14553.70357</v>
+        <v>17452.60134</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>17476.4218</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>81586.03996000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>58922.344</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.36414</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>18329.909</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>97077.56169</v>
@@ -2129,34 +2185,39 @@
         <v>139922.59596</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>182280.58254</v>
+        <v>182517.227</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>103424.03903</v>
+        <v>103564.88216</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>164870.61757</v>
+        <v>164909.70881</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>230385.84655</v>
+        <v>230395.37617</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>286325.91629</v>
+        <v>287252.60619</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>253114.51895</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>256749.2764499999</v>
+        <v>256694.43862</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>327210.5568</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>327244.41528</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>374798.248</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>197265.86805</v>
@@ -2168,34 +2229,39 @@
         <v>367887.39467</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>216652.09072</v>
+        <v>217831.58402</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>406871.8484899999</v>
+        <v>411020.72041</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>321780.28188</v>
+        <v>325120.24735</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>605722.27521</v>
+        <v>610894.1615800001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>642506.82951</v>
+        <v>645113.73604</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>779484.7746900001</v>
+        <v>779484.77469</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1944015.7288</v>
+        <v>1944989.36906</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1295757.35688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1300013.75117</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2556647.366</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1359.3527</v>
@@ -2225,16 +2291,21 @@
         <v>10544.25466</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5814.831810000001</v>
+        <v>5818.06283</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5189.491410000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5189.68659</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12651.857</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>22304.45717</v>
@@ -2246,10 +2317,10 @@
         <v>30671.97631</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>20818.42755</v>
+        <v>21251.51453</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>24702.93059</v>
+        <v>26019.46557</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>18655.67843</v>
@@ -2261,19 +2332,24 @@
         <v>67129.98725000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>49975.77714999999</v>
+        <v>49975.77715</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>64717.18628</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>60896.10459999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>60896.1046</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>89542.06600000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>907.771</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>178.78044</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7390.75</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>135062.27931</v>
@@ -2324,34 +2405,39 @@
         <v>261008.82629</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>145069.42353</v>
+        <v>145159.84193</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>304620.59487</v>
+        <v>305760.48849</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>226506.95925</v>
+        <v>227096.26161</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>362534.92699</v>
+        <v>367595.2613599999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>427845.7221</v>
+        <v>428749.82863</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>551520.57485</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1681048.39161</v>
+        <v>1682018.80084</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>931005.3846699999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>935261.58687</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2024716.523</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>11131.03192</v>
@@ -2363,13 +2449,13 @@
         <v>11415.18901</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>8855.49834</v>
+        <v>9511.48626</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>10666.91259</v>
+        <v>12189.99989</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>13932.44161</v>
+        <v>16683.10472</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>20109.42475</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>82286.20187</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>86754.287</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>5.627400000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>26495.34855</v>
@@ -2444,70 +2540,80 @@
         <v>39176.89981</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>58850.33044</v>
+        <v>59019.68646</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>59411.60342</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>189420.71865</v>
+        <v>189532.27065</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>118033.03787</v>
+        <v>119735.83787</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>128694.38845</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>118992.20894</v>
+        <v>118992.20895</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>216201.39389</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>216201.3908</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>335591.883</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>347821.7793199999</v>
+        <v>347821.77932</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>242160.88592</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>412499.2008399999</v>
+        <v>412499.20084</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>305154.54279</v>
+        <v>306681.36025</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>496285.1772399999</v>
+        <v>496650.211</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>492610.38875</v>
+        <v>492719.89046</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>759871.09228</v>
+        <v>759886.1139699999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>791903.28577</v>
+        <v>796331.8005600001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>941925.7127799999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1799225.11288</v>
+        <v>1799441.10875</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1919863.94462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1923703.29166</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1651939.358</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>231628.18918</v>
@@ -2519,40 +2625,45 @@
         <v>258234.72066</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>234968.8796</v>
+        <v>236495.69706</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>293585.56321</v>
+        <v>293950.59697</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>269470.63071</v>
+        <v>269580.13242</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>438600.09255</v>
+        <v>438615.11424</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>515699.97269</v>
+        <v>516649.2452899999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>602620.5502000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1215289.57544</v>
+        <v>1215505.57131</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1258640.89564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1262480.24268</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1120007.216</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>116193.59014</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>87761.53847999999</v>
+        <v>87761.53848</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>154264.48018</v>
@@ -2570,7 +2681,7 @@
         <v>321270.99973</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>276203.31308</v>
+        <v>279682.55527</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>339305.1625800001</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>661223.04898</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>531932.142</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>624060.14438</v>
+        <v>624060.1443800001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>713044.0465599999</v>
+        <v>713044.04656</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-35862.90501999999</v>
+        <v>-35862.90502</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>544470.43949</v>
+        <v>545968.33874</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-17496.81623</v>
+        <v>-20835.69377000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>579732.6524</v>
+        <v>581688.6163399999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1012255.45071</v>
+        <v>1036610.41637</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1704595.53593</v>
+        <v>1715800.22202</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2282099.16791</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2458351.03186</v>
+        <v>2457930.51383</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5364656.352519999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5361339.336080001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>7942434.027</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>95818.82595999997</v>
+        <v>95818.82595999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>96300.83787999998</v>
+        <v>96300.83787999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>348258.36859</v>
+        <v>348258.3685899999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>144695.74887</v>
+        <v>146003.38617</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>177147.4425</v>
+        <v>177726.73263</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>391145.09774</v>
+        <v>391160.73386</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>370732.50521</v>
+        <v>370949.4225</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>155005.90287</v>
+        <v>155224.9536</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>156739.42597</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>258612.45302</v>
+        <v>258791.20473</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>309661.33039</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>309696.03092</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>378707.431</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3032.09942</v>
@@ -2675,10 +2801,10 @@
         <v>13769.03874</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>12915.63844</v>
+        <v>12918.43516</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>994.4960500000001</v>
+        <v>995.6160500000001</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1807.11579</v>
@@ -2687,61 +2813,71 @@
         <v>3567.06592</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3384.764099999999</v>
+        <v>3388.68955</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5339.671530000001</v>
+        <v>5339.67153</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>13181.08772</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4019.86645</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4019.98194</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4369.06</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>92786.72654</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>92357.86527999998</v>
+        <v>92357.86528</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>334489.32985</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>131780.11043</v>
+        <v>133084.95101</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>176152.94645</v>
+        <v>176731.11658</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>389337.98195</v>
+        <v>389353.61807</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>367165.43929</v>
+        <v>367382.35658</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>151621.13877</v>
+        <v>151836.26405</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>151399.75444</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>245431.3653</v>
+        <v>245610.11701</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>305641.46394</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>305676.04898</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>374338.371</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>135532.07721</v>
@@ -2753,34 +2889,39 @@
         <v>464233.94719</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>205582.54154</v>
+        <v>207009.69758</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>181768.30716</v>
+        <v>181945.35131</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>217364.73548</v>
+        <v>217828.36617</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>177309.22057</v>
+        <v>177510.34319</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>370552.4848099999</v>
+        <v>374032.77553</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>311201.15569</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>663569.15313</v>
+        <v>663678.86083</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>493782.9464</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>503607.50542</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>773250.664</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>33171.16717</v>
@@ -2792,7 +2933,7 @@
         <v>51268.25825</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>50087.90064</v>
+        <v>50087.90064000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>82954.19012</v>
@@ -2801,7 +2942,7 @@
         <v>60620.66954</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>49277.24065</v>
+        <v>49277.24065000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>95828.58365</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>243931.64695</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>366999.873</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4462.70691</v>
+        <v>4462.706909999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>25814.50339</v>
@@ -2831,73 +2977,83 @@
         <v>34670.92422</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>22985.35114</v>
+        <v>23027.13193</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7682.96239</v>
+        <v>7756.806239999999</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>10430.61854</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>15556.0753</v>
+        <v>15582.51457</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>18943.93483</v>
+        <v>18957.44396</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>15938.63765</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>18419.04316</v>
+        <v>18419.54316</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13222.89143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>13160.30308</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>27420.025</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>97898.20312999998</v>
+        <v>97898.20312999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>84524.11846000001</v>
+        <v>84524.11846</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>378294.76472</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>132509.28976</v>
+        <v>133894.66501</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>91131.15465</v>
+        <v>91234.35495000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>146313.4474</v>
+        <v>146777.07809</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>112475.90462</v>
+        <v>112650.58797</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>255779.96633</v>
+        <v>259246.74792</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>115716.61196</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>440662.02435</v>
+        <v>440771.23205</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>236628.40802</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>246515.55539</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>378830.766</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>584346.8931300001</v>
@@ -2909,34 +3065,39 @@
         <v>-151838.48362</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>483583.64682</v>
+        <v>484962.02733</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-22117.68088999999</v>
+        <v>-25054.31245</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>753513.01466</v>
+        <v>755020.9840299998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1205678.73535</v>
+        <v>1230049.49568</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1489048.95399</v>
+        <v>1496992.40009</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2127637.43819</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2053394.33175</v>
+        <v>2053042.85773</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5180534.736509999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5167427.861579999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>7547890.794</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>73009.22909000001</v>
@@ -2945,40 +3106,45 @@
         <v>125229.8528</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>88053.18641000001</v>
+        <v>88053.18640999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>84862.73492000002</v>
+        <v>85099.73063999999</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>64150.71921</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>106796.0076</v>
+        <v>107200.35728</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>177382.40191</v>
+        <v>182661.78257</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>210348.75102</v>
+        <v>210353.30361</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>163655.00243</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>228621.21032</v>
+        <v>228859.53572</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>331588.7674199999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>332631.23038</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>601274.623</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>511337.6640399999</v>
+        <v>511337.66404</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>540037.92159</v>
@@ -2987,31 +3153,34 @@
         <v>-239891.67003</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>398720.9119000001</v>
+        <v>399862.29669</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-86268.4001</v>
+        <v>-89205.03165999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>646717.0070600001</v>
+        <v>647820.6267500001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1028296.33344</v>
+        <v>1047387.71311</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1278700.20297</v>
+        <v>1286639.09648</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1963982.43576</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1824773.12143</v>
+        <v>1824183.32201</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4848945.969089999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4834796.6312</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6946616.171</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>269</v>
@@ -3041,31 +3213,34 @@
         <v>298</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>449</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>566</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>